--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1277CB-445B-480E-A07B-EDCEE6997532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70AC9C-A6D0-4050-A8FE-25685D5145FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,14 +443,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,48 +457,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>92.40910653858306</v>
+        <v>153.76111980100001</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.28283218805299998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>92409.106538583059</v>
+        <v>153761.11980099999</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>8484.965641589999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>341331.51682156429</v>
+        <v>567947.44820895372</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>38991.386861080602</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6826.6303364312862</v>
+        <v>11358.948964179081</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>779.8277372216121</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC70AC9C-A6D0-4050-A8FE-25685D5145FD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753708B4-DC49-4D2E-9331-DEDD5D56FA74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,10 +462,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>153.76111980100001</v>
+        <v>155.157341903</v>
       </c>
       <c r="C2">
-        <v>0.28283218805299998</v>
+        <v>0.19759461697799999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -473,10 +473,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>153761.11980099999</v>
+        <v>155157.34190299999</v>
       </c>
       <c r="C3">
-        <v>8484.965641589999</v>
+        <v>5927.8385093399993</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>567947.44820895372</v>
+        <v>573104.67378711107</v>
       </c>
       <c r="C4">
-        <v>38991.386861080602</v>
+        <v>27240.492693895569</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -495,10 +495,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11358.948964179081</v>
+        <v>11462.09347574222</v>
       </c>
       <c r="C5">
-        <v>779.8277372216121</v>
+        <v>544.80985387791134</v>
       </c>
     </row>
   </sheetData>

--- a/MicroGrids/Results/Renewable_Sources_Data.xlsx
+++ b/MicroGrids/Results/Renewable_Sources_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Desktop\MicroGridsPy-Teaching\MicroGridsPy-Teaching-multi-year-capacity-expansion-MYCE-\MicroGrids\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giulia\GitHub\MicroGridsPy-Teaching\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753708B4-DC49-4D2E-9331-DEDD5D56FA74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A1111-EEEC-4697-AA7C-59E2897ED5B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,13 +443,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,48 +457,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>155.157341903</v>
+        <v>92.409090404799997</v>
       </c>
       <c r="C2">
-        <v>0.19759461697799999</v>
+        <v>1.8550090838800001E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>155157.34190299999</v>
+        <v>92409.090404799994</v>
       </c>
       <c r="C3">
-        <v>5927.8385093399993</v>
+        <v>5.5650272516400001E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>573104.67378711107</v>
+        <v>341331.45722820982</v>
       </c>
       <c r="C4">
-        <v>27240.492693895569</v>
+        <v>2.5573247980823871E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>11462.09347574222</v>
+        <v>6826.6291445641946</v>
       </c>
       <c r="C5">
-        <v>544.80985387791134</v>
+        <v>5.1146495961647742E-6</v>
       </c>
     </row>
   </sheetData>
